--- a/aaith-dictionary.xlsx
+++ b/aaith-dictionary.xlsx
@@ -770,7 +770,7 @@
     <t>autumn, fall</t>
   </si>
   <si>
-    <t>faɡe</t>
+    <t>fage</t>
   </si>
   <si>
     <t>/'faɡɘ/</t>
@@ -1043,7 +1043,7 @@
     <t>to owe, duty, obligation</t>
   </si>
   <si>
-    <t>ɡehe</t>
+    <t>gehe</t>
   </si>
   <si>
     <t>/'ɡɘhɘ/</t>
@@ -3136,10 +3136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -3201,7 +3201,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3216,7 +3216,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3238,54 +3285,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3306,17 +3307,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3331,7 +3331,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3343,67 +3481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3415,79 +3493,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3499,19 +3511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3575,21 +3575,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3622,10 +3607,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3643,134 +3643,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3784,9 +3784,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4130,8 +4127,8 @@
   <sheetPr/>
   <dimension ref="A1:F338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -4148,19 +4145,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4268,19 +4265,19 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4288,19 +4285,19 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4308,19 +4305,19 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4328,19 +4325,19 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4348,19 +4345,19 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4368,19 +4365,19 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4388,19 +4385,19 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4408,19 +4405,19 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4428,19 +4425,19 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4448,19 +4445,19 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4468,19 +4465,19 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4488,19 +4485,19 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="E18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4508,19 +4505,19 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4528,19 +4525,19 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4548,19 +4545,19 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4568,19 +4565,19 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4588,19 +4585,19 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4608,19 +4605,19 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4628,19 +4625,19 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4648,19 +4645,19 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4668,19 +4665,19 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4688,19 +4685,19 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="10" t="s">
+      <c r="E28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4708,19 +4705,19 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4728,19 +4725,19 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="E30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4748,19 +4745,19 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="10" t="s">
+      <c r="E31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4768,19 +4765,19 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4788,19 +4785,19 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="10" t="s">
+      <c r="E33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4808,19 +4805,19 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="10" t="s">
+      <c r="E34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4828,19 +4825,19 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4848,19 +4845,19 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4868,19 +4865,19 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4888,19 +4885,19 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="10" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4908,19 +4905,19 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="9" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4928,19 +4925,19 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="10" t="s">
+      <c r="E40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4948,19 +4945,19 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="10" t="s">
+      <c r="E41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4968,19 +4965,19 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="E42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="9" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4988,19 +4985,19 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="10" t="s">
+      <c r="E43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5008,19 +5005,19 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="9" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5028,19 +5025,19 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="10" t="s">
+      <c r="E45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5048,19 +5045,19 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="E46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5068,19 +5065,19 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="9" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5088,19 +5085,19 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="10" t="s">
+      <c r="E48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5108,19 +5105,19 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="9" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5128,19 +5125,19 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="9" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5148,19 +5145,19 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="10" t="s">
+      <c r="E51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5168,19 +5165,19 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="10" t="s">
+      <c r="E52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5188,19 +5185,19 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="9" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5208,19 +5205,19 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="10" t="s">
+      <c r="E54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5228,19 +5225,19 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="10" t="s">
+      <c r="E55" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="9" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5248,19 +5245,19 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="10" t="s">
+      <c r="E56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="9" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5268,19 +5265,19 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="9" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5288,19 +5285,19 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="10" t="s">
+      <c r="E58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5308,19 +5305,19 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="10" t="s">
+      <c r="E59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5328,19 +5325,19 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="9" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5348,19 +5345,19 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="10" t="s">
+      <c r="E61" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5368,19 +5365,19 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="9" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5388,19 +5385,19 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="9" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5408,19 +5405,19 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="10" t="s">
+      <c r="E64" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5428,19 +5425,19 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="9" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5448,19 +5445,19 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E66" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="10" t="s">
+      <c r="E66" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="9" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5468,19 +5465,19 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E67" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="10" t="s">
+      <c r="E67" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="9" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5488,19 +5485,19 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E68" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="10" t="s">
+      <c r="E68" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="9" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5508,19 +5505,19 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5528,19 +5525,19 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F70" s="9" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5548,19 +5545,19 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E71" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="10" t="s">
+      <c r="E71" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5568,19 +5565,19 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E72" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="10" t="s">
+      <c r="E72" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="9" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5588,19 +5585,19 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F73" s="9" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5608,19 +5605,19 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5628,19 +5625,19 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="10" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5648,19 +5645,19 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F76" s="9" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5668,19 +5665,19 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="9" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5688,19 +5685,19 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="E78" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="10" t="s">
+      <c r="E78" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="9" t="s">
         <v>249</v>
       </c>
     </row>
@@ -5708,19 +5705,19 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="9" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5728,19 +5725,19 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E80" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="10" t="s">
+      <c r="E80" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5748,19 +5745,19 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="9" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5768,19 +5765,19 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="E82" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="10" t="s">
+      <c r="E82" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="9" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5788,19 +5785,19 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="9" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5808,19 +5805,19 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E84" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" s="10" t="s">
+      <c r="E84" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="9" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5828,19 +5825,19 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="9" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5848,19 +5845,19 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="9" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5868,19 +5865,19 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E87" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" s="10" t="s">
+      <c r="E87" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="9" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5888,19 +5885,19 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="E88" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="10" t="s">
+      <c r="E88" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="9" t="s">
         <v>279</v>
       </c>
     </row>
@@ -5908,19 +5905,19 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="9" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5928,19 +5925,19 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F90" s="9" t="s">
         <v>285</v>
       </c>
     </row>
@@ -5948,19 +5945,19 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F91" s="9" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5968,19 +5965,19 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E92" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F92" s="10" t="s">
+      <c r="E92" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="9" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5988,19 +5985,19 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="E93" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F93" s="10" t="s">
+      <c r="E93" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="9" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6008,19 +6005,19 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="E94" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="10" t="s">
+      <c r="E94" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="9" t="s">
         <v>297</v>
       </c>
     </row>
@@ -6028,19 +6025,19 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F95" s="10" t="s">
+      <c r="F95" s="9" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6048,19 +6045,19 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E96" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F96" s="10" t="s">
+      <c r="E96" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="9" t="s">
         <v>303</v>
       </c>
     </row>
@@ -6068,19 +6065,19 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F97" s="10" t="s">
+      <c r="F97" s="9" t="s">
         <v>306</v>
       </c>
     </row>
@@ -6088,19 +6085,19 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E98" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" s="10" t="s">
+      <c r="E98" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="9" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6108,19 +6105,19 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F99" s="10" t="s">
+      <c r="F99" s="9" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6128,19 +6125,19 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="E100" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="10" t="s">
+      <c r="E100" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="9" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6148,19 +6145,19 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="E101" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="10" t="s">
+      <c r="E101" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="9" t="s">
         <v>318</v>
       </c>
     </row>
@@ -6168,19 +6165,19 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F102" s="10" t="s">
+      <c r="F102" s="9" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6188,19 +6185,19 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F103" s="10" t="s">
+      <c r="F103" s="9" t="s">
         <v>324</v>
       </c>
     </row>
@@ -6208,19 +6205,19 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="10" t="s">
+      <c r="F104" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6228,19 +6225,19 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="E105" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F105" s="10" t="s">
+      <c r="E105" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="9" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6248,19 +6245,19 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F106" s="10" t="s">
+      <c r="F106" s="9" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6268,19 +6265,19 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="E107" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F107" s="10" t="s">
+      <c r="E107" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="9" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6288,19 +6285,19 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F108" s="10" t="s">
+      <c r="F108" s="9" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6308,19 +6305,19 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="10" t="s">
+      <c r="F109" s="9" t="s">
         <v>343</v>
       </c>
     </row>
@@ -6328,19 +6325,19 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="E110" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F110" s="10" t="s">
+      <c r="E110" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="9" t="s">
         <v>346</v>
       </c>
     </row>
@@ -6348,19 +6345,19 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F111" s="10" t="s">
+      <c r="F111" s="9" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6368,19 +6365,19 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="E112" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F112" s="10" t="s">
+      <c r="E112" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="9" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6388,19 +6385,19 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="E113" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F113" s="10" t="s">
+      <c r="E113" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="9" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6408,19 +6405,19 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="E114" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F114" s="10" t="s">
+      <c r="E114" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" s="9" t="s">
         <v>359</v>
       </c>
     </row>
@@ -6428,19 +6425,19 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="E115" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F115" s="10" t="s">
+      <c r="E115" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" s="9" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6448,19 +6445,19 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="E116" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F116" s="10" t="s">
+      <c r="E116" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="9" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6468,19 +6465,19 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="E117" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F117" s="10" t="s">
+      <c r="E117" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="9" t="s">
         <v>368</v>
       </c>
     </row>
@@ -6488,19 +6485,19 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="E118" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F118" s="10" t="s">
+      <c r="E118" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" s="9" t="s">
         <v>371</v>
       </c>
     </row>
@@ -6508,19 +6505,19 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F119" s="10" t="s">
+      <c r="F119" s="9" t="s">
         <v>374</v>
       </c>
     </row>
@@ -6528,19 +6525,19 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="E120" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F120" s="10" t="s">
+      <c r="E120" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" s="9" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6548,19 +6545,19 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="E121" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F121" s="10" t="s">
+      <c r="E121" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" s="9" t="s">
         <v>380</v>
       </c>
     </row>
@@ -6568,19 +6565,19 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="E122" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F122" s="10" t="s">
+      <c r="E122" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="9" t="s">
         <v>383</v>
       </c>
     </row>
@@ -6588,19 +6585,19 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F123" s="10" t="s">
+      <c r="F123" s="9" t="s">
         <v>386</v>
       </c>
     </row>
@@ -6608,19 +6605,19 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F124" s="10" t="s">
+      <c r="F124" s="9" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6628,19 +6625,19 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="E125" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F125" s="10" t="s">
+      <c r="E125" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="9" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6648,19 +6645,19 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F126" s="10" t="s">
+      <c r="F126" s="9" t="s">
         <v>395</v>
       </c>
     </row>
@@ -6668,19 +6665,19 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F127" s="10" t="s">
+      <c r="F127" s="9" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6688,19 +6685,19 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="E128" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F128" s="10" t="s">
+      <c r="F128" s="9" t="s">
         <v>401</v>
       </c>
     </row>
@@ -6708,19 +6705,19 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F129" s="10" t="s">
+      <c r="F129" s="9" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6728,19 +6725,19 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D130" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="E130" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F130" s="10" t="s">
+      <c r="F130" s="9" t="s">
         <v>407</v>
       </c>
     </row>
@@ -6748,19 +6745,19 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D131" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="E131" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F131" s="10" t="s">
+      <c r="F131" s="9" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6768,19 +6765,19 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="E132" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F132" s="10" t="s">
+      <c r="E132" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" s="9" t="s">
         <v>413</v>
       </c>
     </row>
@@ -6788,19 +6785,19 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="E133" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F133" s="10" t="s">
+      <c r="E133" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" s="9" t="s">
         <v>416</v>
       </c>
     </row>
@@ -6808,19 +6805,19 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="E134" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F134" s="10" t="s">
+      <c r="F134" s="9" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6828,19 +6825,19 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="E135" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F135" s="10" t="s">
+      <c r="E135" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F135" s="9" t="s">
         <v>422</v>
       </c>
     </row>
@@ -6848,19 +6845,19 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="E136" s="9" t="s">
+      <c r="E136" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F136" s="10" t="s">
+      <c r="F136" s="9" t="s">
         <v>425</v>
       </c>
     </row>
@@ -6868,19 +6865,19 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="E137" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F137" s="10" t="s">
+      <c r="E137" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137" s="9" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6888,19 +6885,19 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="E138" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="F138" s="10" t="s">
+      <c r="F138" s="9" t="s">
         <v>432</v>
       </c>
     </row>
@@ -6908,19 +6905,19 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="E139" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F139" s="10" t="s">
+      <c r="E139" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139" s="9" t="s">
         <v>435</v>
       </c>
     </row>
@@ -6928,19 +6925,19 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="E140" s="9" t="s">
+      <c r="E140" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F140" s="10" t="s">
+      <c r="F140" s="9" t="s">
         <v>438</v>
       </c>
     </row>
@@ -6948,19 +6945,19 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="E141" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F141" s="10" t="s">
+      <c r="E141" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141" s="9" t="s">
         <v>441</v>
       </c>
     </row>
@@ -6968,19 +6965,19 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="D142" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="E142" s="9" t="s">
+      <c r="E142" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="F142" s="10" t="s">
+      <c r="F142" s="9" t="s">
         <v>445</v>
       </c>
     </row>
@@ -6988,19 +6985,19 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="E143" s="9" t="s">
+      <c r="E143" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F143" s="10" t="s">
+      <c r="F143" s="9" t="s">
         <v>448</v>
       </c>
     </row>
@@ -7008,19 +7005,19 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D144" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="E144" s="9" t="s">
+      <c r="E144" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F144" s="10" t="s">
+      <c r="F144" s="9" t="s">
         <v>451</v>
       </c>
     </row>
@@ -7028,19 +7025,19 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="E145" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F145" s="10" t="s">
+      <c r="F145" s="9" t="s">
         <v>454</v>
       </c>
     </row>
@@ -7048,19 +7045,19 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="E146" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F146" s="10" t="s">
+      <c r="E146" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" s="9" t="s">
         <v>457</v>
       </c>
     </row>
@@ -7068,19 +7065,19 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="D147" s="9" t="s">
+      <c r="D147" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="E147" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F147" s="10" t="s">
+      <c r="E147" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7088,19 +7085,19 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="E148" s="9" t="s">
+      <c r="E148" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F148" s="10" t="s">
+      <c r="F148" s="9" t="s">
         <v>463</v>
       </c>
     </row>
@@ -7108,19 +7105,19 @@
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="E149" s="9" t="s">
+      <c r="E149" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F149" s="10" t="s">
+      <c r="F149" s="9" t="s">
         <v>466</v>
       </c>
     </row>
@@ -7128,19 +7125,19 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D150" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="E150" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F150" s="10" t="s">
+      <c r="E150" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150" s="9" t="s">
         <v>469</v>
       </c>
     </row>
@@ -7148,19 +7145,19 @@
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="E151" s="9" t="s">
+      <c r="E151" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F151" s="10" t="s">
+      <c r="F151" s="9" t="s">
         <v>472</v>
       </c>
     </row>
@@ -7168,19 +7165,19 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="E152" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F152" s="10" t="s">
+      <c r="E152" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152" s="9" t="s">
         <v>475</v>
       </c>
     </row>
@@ -7188,19 +7185,19 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="E153" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F153" s="10" t="s">
+      <c r="E153" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153" s="9" t="s">
         <v>478</v>
       </c>
     </row>
@@ -7208,19 +7205,19 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="E154" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F154" s="10" t="s">
+      <c r="E154" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F154" s="9" t="s">
         <v>481</v>
       </c>
     </row>
@@ -7228,19 +7225,19 @@
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="E155" s="9" t="s">
+      <c r="E155" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F155" s="10" t="s">
+      <c r="F155" s="9" t="s">
         <v>484</v>
       </c>
     </row>
@@ -7248,19 +7245,19 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D156" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="E156" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F156" s="10" t="s">
+      <c r="E156" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" s="9" t="s">
         <v>487</v>
       </c>
     </row>
@@ -7268,19 +7265,19 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="E157" s="9" t="s">
+      <c r="E157" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F157" s="10" t="s">
+      <c r="F157" s="9" t="s">
         <v>490</v>
       </c>
     </row>
@@ -7288,19 +7285,19 @@
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="E158" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F158" s="10" t="s">
+      <c r="E158" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158" s="9" t="s">
         <v>493</v>
       </c>
     </row>
@@ -7308,19 +7305,19 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="E159" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F159" s="10" t="s">
+      <c r="E159" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F159" s="9" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7328,19 +7325,19 @@
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="E160" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F160" s="10" t="s">
+      <c r="E160" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F160" s="9" t="s">
         <v>499</v>
       </c>
     </row>
@@ -7348,19 +7345,19 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="E161" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F161" s="10" t="s">
+      <c r="E161" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F161" s="9" t="s">
         <v>502</v>
       </c>
     </row>
@@ -7368,19 +7365,19 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="E162" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F162" s="10" t="s">
+      <c r="E162" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F162" s="9" t="s">
         <v>505</v>
       </c>
     </row>
@@ -7388,19 +7385,19 @@
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="E163" s="9" t="s">
+      <c r="E163" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F163" s="10" t="s">
+      <c r="F163" s="9" t="s">
         <v>508</v>
       </c>
     </row>
@@ -7408,19 +7405,19 @@
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D164" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="E164" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F164" s="10" t="s">
+      <c r="E164" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164" s="9" t="s">
         <v>511</v>
       </c>
     </row>
@@ -7428,19 +7425,19 @@
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="E165" s="9" t="s">
+      <c r="E165" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F165" s="10" t="s">
+      <c r="F165" s="9" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7448,19 +7445,19 @@
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D166" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="E166" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F166" s="10" t="s">
+      <c r="E166" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166" s="9" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7468,19 +7465,19 @@
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="E167" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F167" s="10" t="s">
+      <c r="E167" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F167" s="9" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7488,19 +7485,19 @@
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="E168" s="9" t="s">
+      <c r="E168" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F168" s="10" t="s">
+      <c r="F168" s="9" t="s">
         <v>523</v>
       </c>
     </row>
@@ -7508,19 +7505,19 @@
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B169" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="E169" s="9" t="s">
+      <c r="E169" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F169" s="10" t="s">
+      <c r="F169" s="9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7528,19 +7525,19 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B170" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D170" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="E170" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F170" s="10" t="s">
+      <c r="E170" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F170" s="9" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7548,19 +7545,19 @@
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="E171" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F171" s="10" t="s">
+      <c r="E171" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F171" s="9" t="s">
         <v>532</v>
       </c>
     </row>
@@ -7568,19 +7565,19 @@
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B172" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="E172" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F172" s="10" t="s">
+      <c r="E172" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F172" s="9" t="s">
         <v>535</v>
       </c>
     </row>
@@ -7588,19 +7585,19 @@
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B173" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="E173" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F173" s="10" t="s">
+      <c r="E173" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F173" s="9" t="s">
         <v>538</v>
       </c>
     </row>
@@ -7608,19 +7605,19 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B174" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="E174" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F174" s="10" t="s">
+      <c r="E174" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F174" s="9" t="s">
         <v>541</v>
       </c>
     </row>
@@ -7628,19 +7625,19 @@
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="E175" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F175" s="10" t="s">
+      <c r="E175" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F175" s="9" t="s">
         <v>544</v>
       </c>
     </row>
@@ -7648,19 +7645,19 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B176" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D176" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="E176" s="9" t="s">
+      <c r="E176" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F176" s="10" t="s">
+      <c r="F176" s="9" t="s">
         <v>547</v>
       </c>
     </row>
@@ -7668,19 +7665,19 @@
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D177" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E177" s="9" t="s">
+      <c r="E177" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F177" s="10" t="s">
+      <c r="F177" s="9" t="s">
         <v>550</v>
       </c>
     </row>
@@ -7688,19 +7685,19 @@
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="E178" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F178" s="10" t="s">
+      <c r="E178" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F178" s="9" t="s">
         <v>553</v>
       </c>
     </row>
@@ -7708,19 +7705,19 @@
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="D179" s="9" t="s">
+      <c r="D179" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="E179" s="9" t="s">
+      <c r="E179" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F179" s="10" t="s">
+      <c r="F179" s="9" t="s">
         <v>556</v>
       </c>
     </row>
@@ -7728,19 +7725,19 @@
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="D180" s="9" t="s">
+      <c r="D180" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="E180" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F180" s="10" t="s">
+      <c r="E180" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F180" s="9" t="s">
         <v>559</v>
       </c>
     </row>
@@ -7748,19 +7745,19 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C181" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D181" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="E181" s="9" t="s">
+      <c r="E181" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F181" s="10" t="s">
+      <c r="F181" s="9" t="s">
         <v>562</v>
       </c>
     </row>
@@ -7768,19 +7765,19 @@
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B182" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="D182" s="9" t="s">
+      <c r="D182" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="E182" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F182" s="10" t="s">
+      <c r="E182" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F182" s="9" t="s">
         <v>565</v>
       </c>
     </row>
@@ -7788,19 +7785,19 @@
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="D183" s="9" t="s">
+      <c r="D183" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="E183" s="9" t="s">
+      <c r="E183" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F183" s="10" t="s">
+      <c r="F183" s="9" t="s">
         <v>568</v>
       </c>
     </row>
@@ -7808,19 +7805,19 @@
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="D184" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="E184" s="9" t="s">
+      <c r="E184" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F184" s="10" t="s">
+      <c r="F184" s="9" t="s">
         <v>571</v>
       </c>
     </row>
@@ -7828,19 +7825,19 @@
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="D185" s="9" t="s">
+      <c r="D185" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="E185" s="9" t="s">
+      <c r="E185" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F185" s="10" t="s">
+      <c r="F185" s="9" t="s">
         <v>574</v>
       </c>
     </row>
@@ -7848,19 +7845,19 @@
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="D186" s="9" t="s">
+      <c r="D186" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="E186" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F186" s="10" t="s">
+      <c r="E186" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F186" s="9" t="s">
         <v>577</v>
       </c>
     </row>
@@ -7868,19 +7865,19 @@
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="D187" s="9" t="s">
+      <c r="D187" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="E187" s="9" t="s">
+      <c r="E187" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F187" s="10" t="s">
+      <c r="F187" s="9" t="s">
         <v>580</v>
       </c>
     </row>
@@ -7888,19 +7885,19 @@
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="D188" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="E188" s="9" t="s">
+      <c r="E188" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F188" s="10" t="s">
+      <c r="F188" s="9" t="s">
         <v>583</v>
       </c>
     </row>
@@ -7908,19 +7905,19 @@
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="C189" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="D189" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="E189" s="9" t="s">
+      <c r="E189" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F189" s="10" t="s">
+      <c r="F189" s="9" t="s">
         <v>586</v>
       </c>
     </row>
@@ -7928,19 +7925,19 @@
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B190" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C190" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="D190" s="9" t="s">
+      <c r="D190" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="E190" s="9" t="s">
+      <c r="E190" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="F190" s="10" t="s">
+      <c r="F190" s="9" t="s">
         <v>590</v>
       </c>
     </row>
@@ -7948,19 +7945,19 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="D191" s="9" t="s">
+      <c r="D191" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="E191" s="9" t="s">
+      <c r="E191" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="F191" s="10" t="s">
+      <c r="F191" s="9" t="s">
         <v>594</v>
       </c>
     </row>
@@ -7968,19 +7965,19 @@
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B192" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="D192" s="9" t="s">
+      <c r="D192" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="E192" s="9" t="s">
+      <c r="E192" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F192" s="10" t="s">
+      <c r="F192" s="9" t="s">
         <v>597</v>
       </c>
     </row>
@@ -7988,19 +7985,19 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="D193" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="E193" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F193" s="10" t="s">
+      <c r="E193" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F193" s="9" t="s">
         <v>600</v>
       </c>
     </row>
@@ -8008,19 +8005,19 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B194" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="D194" s="9" t="s">
+      <c r="D194" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="E194" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F194" s="10" t="s">
+      <c r="E194" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F194" s="9" t="s">
         <v>603</v>
       </c>
     </row>
@@ -8028,19 +8025,19 @@
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="D195" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="E195" s="9" t="s">
+      <c r="E195" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="F195" s="10" t="s">
+      <c r="F195" s="9" t="s">
         <v>607</v>
       </c>
     </row>
@@ -8048,19 +8045,19 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C196" s="8" t="s">
+      <c r="C196" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="D196" s="9" t="s">
+      <c r="D196" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="E196" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F196" s="10" t="s">
+      <c r="E196" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F196" s="9" t="s">
         <v>610</v>
       </c>
     </row>
@@ -8068,19 +8065,19 @@
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="D197" s="9" t="s">
+      <c r="D197" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="E197" s="9" t="s">
+      <c r="E197" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F197" s="10" t="s">
+      <c r="F197" s="9" t="s">
         <v>613</v>
       </c>
     </row>
@@ -8088,19 +8085,19 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="D198" s="9" t="s">
+      <c r="D198" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="E198" s="9" t="s">
+      <c r="E198" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F198" s="10" t="s">
+      <c r="F198" s="9" t="s">
         <v>616</v>
       </c>
     </row>
@@ -8108,19 +8105,19 @@
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C199" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="D199" s="9" t="s">
+      <c r="D199" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="E199" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F199" s="10" t="s">
+      <c r="E199" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F199" s="9" t="s">
         <v>619</v>
       </c>
     </row>
@@ -8128,19 +8125,19 @@
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B200" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C200" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="D200" s="9" t="s">
+      <c r="D200" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="E200" s="9" t="s">
+      <c r="E200" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F200" s="10" t="s">
+      <c r="F200" s="9" t="s">
         <v>622</v>
       </c>
     </row>
@@ -8148,19 +8145,19 @@
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C201" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="D201" s="9" t="s">
+      <c r="D201" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="E201" s="9" t="s">
+      <c r="E201" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F201" s="10" t="s">
+      <c r="F201" s="9" t="s">
         <v>625</v>
       </c>
     </row>
@@ -8168,19 +8165,19 @@
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B202" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="C202" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="D202" s="9" t="s">
+      <c r="D202" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="E202" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F202" s="10" t="s">
+      <c r="E202" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F202" s="9" t="s">
         <v>628</v>
       </c>
     </row>
@@ -8188,19 +8185,19 @@
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C203" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="D203" s="9" t="s">
+      <c r="D203" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="E203" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F203" s="10" t="s">
+      <c r="E203" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F203" s="9" t="s">
         <v>631</v>
       </c>
     </row>
@@ -8208,19 +8205,19 @@
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B204" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C204" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="D204" s="9" t="s">
+      <c r="D204" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="E204" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F204" s="10" t="s">
+      <c r="E204" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F204" s="9" t="s">
         <v>634</v>
       </c>
     </row>
@@ -8228,19 +8225,19 @@
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C205" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="D205" s="9" t="s">
+      <c r="D205" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="E205" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F205" s="10" t="s">
+      <c r="E205" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F205" s="9" t="s">
         <v>637</v>
       </c>
     </row>
@@ -8248,19 +8245,19 @@
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="D206" s="9" t="s">
+      <c r="D206" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="E206" s="9" t="s">
+      <c r="E206" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F206" s="10" t="s">
+      <c r="F206" s="9" t="s">
         <v>640</v>
       </c>
     </row>
@@ -8268,19 +8265,19 @@
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="D207" s="9" t="s">
+      <c r="D207" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="E207" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F207" s="10" t="s">
+      <c r="E207" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F207" s="9" t="s">
         <v>643</v>
       </c>
     </row>
@@ -8288,19 +8285,19 @@
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="D208" s="9" t="s">
+      <c r="D208" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="E208" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F208" s="10" t="s">
+      <c r="E208" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F208" s="9" t="s">
         <v>646</v>
       </c>
     </row>
@@ -8308,19 +8305,19 @@
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B209" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C209" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="D209" s="9" t="s">
+      <c r="D209" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="E209" s="9" t="s">
+      <c r="E209" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="F209" s="10" t="s">
+      <c r="F209" s="9" t="s">
         <v>649</v>
       </c>
     </row>
@@ -8328,19 +8325,19 @@
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C210" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="D210" s="9" t="s">
+      <c r="D210" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="E210" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F210" s="10" t="s">
+      <c r="E210" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F210" s="9" t="s">
         <v>652</v>
       </c>
     </row>
@@ -8348,19 +8345,19 @@
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B211" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C211" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="D211" s="9" t="s">
+      <c r="D211" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="E211" s="9" t="s">
+      <c r="E211" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F211" s="10" t="s">
+      <c r="F211" s="9" t="s">
         <v>655</v>
       </c>
     </row>
@@ -8368,19 +8365,19 @@
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="B212" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="D212" s="9" t="s">
+      <c r="D212" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="E212" s="9" t="s">
+      <c r="E212" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F212" s="10" t="s">
+      <c r="F212" s="9" t="s">
         <v>658</v>
       </c>
     </row>
@@ -8388,19 +8385,19 @@
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="7" t="s">
+      <c r="B213" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C213" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="D213" s="9" t="s">
+      <c r="D213" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="E213" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F213" s="10" t="s">
+      <c r="E213" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F213" s="9" t="s">
         <v>661</v>
       </c>
     </row>
@@ -8408,19 +8405,19 @@
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="C214" s="8" t="s">
+      <c r="C214" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="D214" s="9" t="s">
+      <c r="D214" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="E214" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F214" s="10" t="s">
+      <c r="E214" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F214" s="9" t="s">
         <v>664</v>
       </c>
     </row>
@@ -8428,19 +8425,19 @@
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="7" t="s">
+      <c r="B215" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="C215" s="8" t="s">
+      <c r="C215" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="D215" s="9" t="s">
+      <c r="D215" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="E215" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F215" s="10" t="s">
+      <c r="E215" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F215" s="9" t="s">
         <v>667</v>
       </c>
     </row>
@@ -8448,19 +8445,19 @@
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="B216" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="C216" s="8" t="s">
+      <c r="C216" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="D216" s="9" t="s">
+      <c r="D216" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="E216" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F216" s="10" t="s">
+      <c r="E216" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F216" s="9" t="s">
         <v>670</v>
       </c>
     </row>
@@ -8468,19 +8465,19 @@
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="C217" s="8" t="s">
+      <c r="C217" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="D217" s="9" t="s">
+      <c r="D217" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="E217" s="9" t="s">
+      <c r="E217" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F217" s="10" t="s">
+      <c r="F217" s="9" t="s">
         <v>673</v>
       </c>
     </row>
@@ -8488,19 +8485,19 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="B218" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="C218" s="8" t="s">
+      <c r="C218" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="D218" s="9" t="s">
+      <c r="D218" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="E218" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F218" s="10" t="s">
+      <c r="E218" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F218" s="9" t="s">
         <v>676</v>
       </c>
     </row>
@@ -8508,19 +8505,19 @@
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="C219" s="8" t="s">
+      <c r="C219" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="D219" s="9" t="s">
+      <c r="D219" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="E219" s="9" t="s">
+      <c r="E219" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F219" s="10" t="s">
+      <c r="F219" s="9" t="s">
         <v>679</v>
       </c>
     </row>
@@ -8528,19 +8525,19 @@
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="7" t="s">
+      <c r="B220" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="C220" s="8" t="s">
+      <c r="C220" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="D220" s="9" t="s">
+      <c r="D220" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="E220" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F220" s="10" t="s">
+      <c r="E220" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F220" s="9" t="s">
         <v>682</v>
       </c>
     </row>
@@ -8548,19 +8545,19 @@
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="C221" s="8" t="s">
+      <c r="C221" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="D221" s="9" t="s">
+      <c r="D221" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="E221" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F221" s="10" t="s">
+      <c r="E221" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F221" s="9" t="s">
         <v>685</v>
       </c>
     </row>
@@ -8568,19 +8565,19 @@
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B222" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="C222" s="8" t="s">
+      <c r="C222" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="D222" s="9" t="s">
+      <c r="D222" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="E222" s="9" t="s">
+      <c r="E222" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F222" s="10" t="s">
+      <c r="F222" s="9" t="s">
         <v>688</v>
       </c>
     </row>
@@ -8588,19 +8585,19 @@
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B223" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="C223" s="8" t="s">
+      <c r="C223" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="D223" s="9" t="s">
+      <c r="D223" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="E223" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F223" s="10" t="s">
+      <c r="E223" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F223" s="9" t="s">
         <v>691</v>
       </c>
     </row>
@@ -8608,19 +8605,19 @@
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="B224" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="C224" s="8" t="s">
+      <c r="C224" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="D224" s="9" t="s">
+      <c r="D224" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="E224" s="9" t="s">
+      <c r="E224" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F224" s="10" t="s">
+      <c r="F224" s="9" t="s">
         <v>694</v>
       </c>
     </row>
@@ -8628,19 +8625,19 @@
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="C225" s="8" t="s">
+      <c r="C225" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="D225" s="9" t="s">
+      <c r="D225" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="E225" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F225" s="10" t="s">
+      <c r="E225" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F225" s="9" t="s">
         <v>697</v>
       </c>
     </row>
@@ -8648,19 +8645,19 @@
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B226" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="C226" s="8" t="s">
+      <c r="C226" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="D226" s="9" t="s">
+      <c r="D226" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="E226" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F226" s="10" t="s">
+      <c r="E226" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F226" s="9" t="s">
         <v>700</v>
       </c>
     </row>
@@ -8668,19 +8665,19 @@
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B227" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="C227" s="8" t="s">
+      <c r="C227" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="D227" s="9" t="s">
+      <c r="D227" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="E227" s="9" t="s">
+      <c r="E227" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F227" s="10" t="s">
+      <c r="F227" s="9" t="s">
         <v>703</v>
       </c>
     </row>
@@ -8688,19 +8685,19 @@
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B228" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="C228" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="D228" s="9" t="s">
+      <c r="D228" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="E228" s="9" t="s">
+      <c r="E228" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F228" s="10" t="s">
+      <c r="F228" s="9" t="s">
         <v>706</v>
       </c>
     </row>
@@ -8708,19 +8705,19 @@
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B229" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="C229" s="8" t="s">
+      <c r="C229" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="D229" s="9" t="s">
+      <c r="D229" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="E229" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F229" s="10" t="s">
+      <c r="E229" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F229" s="9" t="s">
         <v>709</v>
       </c>
     </row>
@@ -8728,19 +8725,19 @@
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B230" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="C230" s="8" t="s">
+      <c r="C230" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="D230" s="9" t="s">
+      <c r="D230" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="E230" s="9" t="s">
+      <c r="E230" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F230" s="10" t="s">
+      <c r="F230" s="9" t="s">
         <v>706</v>
       </c>
     </row>
@@ -8748,19 +8745,19 @@
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="C231" s="8" t="s">
+      <c r="C231" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="D231" s="9" t="s">
+      <c r="D231" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="E231" s="9" t="s">
+      <c r="E231" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F231" s="10" t="s">
+      <c r="F231" s="9" t="s">
         <v>714</v>
       </c>
     </row>
@@ -8768,19 +8765,19 @@
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B232" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="C232" s="8" t="s">
+      <c r="C232" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="D232" s="9" t="s">
+      <c r="D232" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="E232" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F232" s="10" t="s">
+      <c r="E232" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F232" s="9" t="s">
         <v>717</v>
       </c>
     </row>
@@ -8788,19 +8785,19 @@
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B233" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="C233" s="8" t="s">
+      <c r="C233" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="D233" s="9" t="s">
+      <c r="D233" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="E233" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F233" s="10" t="s">
+      <c r="E233" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F233" s="9" t="s">
         <v>720</v>
       </c>
     </row>
@@ -8808,19 +8805,19 @@
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B234" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="C234" s="8" t="s">
+      <c r="C234" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="D234" s="9" t="s">
+      <c r="D234" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="E234" s="9" t="s">
+      <c r="E234" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F234" s="10" t="s">
+      <c r="F234" s="9" t="s">
         <v>723</v>
       </c>
     </row>
@@ -8828,19 +8825,19 @@
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B235" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="C235" s="8" t="s">
+      <c r="C235" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="D235" s="9" t="s">
+      <c r="D235" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="E235" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F235" s="10" t="s">
+      <c r="E235" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F235" s="9" t="s">
         <v>726</v>
       </c>
     </row>
@@ -8848,19 +8845,19 @@
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="B236" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="C236" s="8" t="s">
+      <c r="C236" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="D236" s="9" t="s">
+      <c r="D236" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="E236" s="9" t="s">
+      <c r="E236" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F236" s="10" t="s">
+      <c r="F236" s="9" t="s">
         <v>729</v>
       </c>
     </row>
@@ -8868,19 +8865,19 @@
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="7" t="s">
+      <c r="B237" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="C237" s="8" t="s">
+      <c r="C237" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="D237" s="9" t="s">
+      <c r="D237" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="E237" s="9" t="s">
+      <c r="E237" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F237" s="10" t="s">
+      <c r="F237" s="9" t="s">
         <v>732</v>
       </c>
     </row>
@@ -8888,19 +8885,19 @@
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B238" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="C238" s="8" t="s">
+      <c r="C238" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="D238" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="E238" s="9" t="s">
+      <c r="E238" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F238" s="10" t="s">
+      <c r="F238" s="9" t="s">
         <v>735</v>
       </c>
     </row>
@@ -8908,19 +8905,19 @@
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B239" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="C239" s="8" t="s">
+      <c r="C239" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="D239" s="9" t="s">
+      <c r="D239" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="E239" s="9" t="s">
+      <c r="E239" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="F239" s="10" t="s">
+      <c r="F239" s="9" t="s">
         <v>739</v>
       </c>
     </row>
@@ -8928,19 +8925,19 @@
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B240" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="C240" s="8" t="s">
+      <c r="C240" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="D240" s="9" t="s">
+      <c r="D240" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="E240" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F240" s="10" t="s">
+      <c r="E240" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F240" s="9" t="s">
         <v>742</v>
       </c>
     </row>
@@ -8948,19 +8945,19 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="7" t="s">
+      <c r="B241" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="C241" s="8" t="s">
+      <c r="C241" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="D241" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="E241" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F241" s="10" t="s">
+      <c r="E241" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F241" s="9" t="s">
         <v>745</v>
       </c>
     </row>
@@ -8968,19 +8965,19 @@
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="B242" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="C242" s="8" t="s">
+      <c r="C242" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="D242" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="E242" s="9" t="s">
+      <c r="E242" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F242" s="10" t="s">
+      <c r="F242" s="9" t="s">
         <v>748</v>
       </c>
     </row>
@@ -8988,19 +8985,19 @@
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B243" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="C243" s="8" t="s">
+      <c r="C243" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="D243" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="E243" s="9" t="s">
+      <c r="E243" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F243" s="10" t="s">
+      <c r="F243" s="9" t="s">
         <v>751</v>
       </c>
     </row>
@@ -9008,19 +9005,19 @@
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" s="7" t="s">
+      <c r="B244" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="C244" s="8" t="s">
+      <c r="C244" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="D244" s="9" t="s">
+      <c r="D244" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="E244" s="9" t="s">
+      <c r="E244" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F244" s="10" t="s">
+      <c r="F244" s="9" t="s">
         <v>754</v>
       </c>
     </row>
@@ -9028,19 +9025,19 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B245" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="C245" s="8" t="s">
+      <c r="C245" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="D245" s="9" t="s">
+      <c r="D245" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="E245" s="9" t="s">
+      <c r="E245" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="F245" s="10" t="s">
+      <c r="F245" s="9" t="s">
         <v>758</v>
       </c>
     </row>
@@ -9048,19 +9045,19 @@
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="7" t="s">
+      <c r="B246" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="C246" s="8" t="s">
+      <c r="C246" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="D246" s="9" t="s">
+      <c r="D246" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="E246" s="9" t="s">
+      <c r="E246" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F246" s="10" t="s">
+      <c r="F246" s="9" t="s">
         <v>761</v>
       </c>
     </row>
@@ -9068,19 +9065,19 @@
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B247" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="C247" s="8" t="s">
+      <c r="C247" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="D247" s="9" t="s">
+      <c r="D247" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="E247" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F247" s="10" t="s">
+      <c r="E247" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F247" s="9" t="s">
         <v>764</v>
       </c>
     </row>
@@ -9088,19 +9085,19 @@
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" s="7" t="s">
+      <c r="B248" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="C248" s="8" t="s">
+      <c r="C248" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="D248" s="9" t="s">
+      <c r="D248" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="E248" s="9" t="s">
+      <c r="E248" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F248" s="10" t="s">
+      <c r="F248" s="9" t="s">
         <v>767</v>
       </c>
     </row>
@@ -9108,19 +9105,19 @@
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B249" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="C249" s="8" t="s">
+      <c r="C249" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="D249" s="9" t="s">
+      <c r="D249" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="E249" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F249" s="10" t="s">
+      <c r="E249" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F249" s="9" t="s">
         <v>770</v>
       </c>
     </row>
@@ -9128,19 +9125,19 @@
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B250" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="C250" s="8" t="s">
+      <c r="C250" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="D250" s="9" t="s">
+      <c r="D250" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="E250" s="9" t="s">
+      <c r="E250" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F250" s="10" t="s">
+      <c r="F250" s="9" t="s">
         <v>773</v>
       </c>
     </row>
@@ -9148,19 +9145,19 @@
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="B251" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="C251" s="8" t="s">
+      <c r="C251" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D251" s="9" t="s">
+      <c r="D251" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="E251" s="9" t="s">
+      <c r="E251" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F251" s="10" t="s">
+      <c r="F251" s="9" t="s">
         <v>776</v>
       </c>
     </row>
@@ -9168,19 +9165,19 @@
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="7" t="s">
+      <c r="B252" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="C252" s="8" t="s">
+      <c r="C252" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="D252" s="9" t="s">
+      <c r="D252" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="E252" s="9" t="s">
+      <c r="E252" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F252" s="10" t="s">
+      <c r="F252" s="9" t="s">
         <v>779</v>
       </c>
     </row>
@@ -9188,19 +9185,19 @@
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="7" t="s">
+      <c r="B253" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="C253" s="8" t="s">
+      <c r="C253" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D253" s="9" t="s">
+      <c r="D253" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="E253" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F253" s="10" t="s">
+      <c r="E253" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F253" s="9" t="s">
         <v>782</v>
       </c>
     </row>
@@ -9208,19 +9205,19 @@
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="7" t="s">
+      <c r="B254" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="C254" s="8" t="s">
+      <c r="C254" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="D254" s="8" t="s">
         <v>784</v>
       </c>
-      <c r="E254" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F254" s="10" t="s">
+      <c r="E254" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F254" s="9" t="s">
         <v>785</v>
       </c>
     </row>
@@ -9228,19 +9225,19 @@
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="7" t="s">
+      <c r="B255" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="C255" s="8" t="s">
+      <c r="C255" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="D255" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="E255" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F255" s="10" t="s">
+      <c r="E255" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F255" s="9" t="s">
         <v>788</v>
       </c>
     </row>
@@ -9248,19 +9245,19 @@
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="7" t="s">
+      <c r="B256" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="C256" s="8" t="s">
+      <c r="C256" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="D256" s="9" t="s">
+      <c r="D256" s="8" t="s">
         <v>790</v>
       </c>
-      <c r="E256" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F256" s="10" t="s">
+      <c r="E256" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F256" s="9" t="s">
         <v>791</v>
       </c>
     </row>
@@ -9268,19 +9265,19 @@
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="B257" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="C257" s="8" t="s">
+      <c r="C257" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="D257" s="9" t="s">
+      <c r="D257" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="E257" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F257" s="10" t="s">
+      <c r="E257" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F257" s="9" t="s">
         <v>794</v>
       </c>
     </row>
@@ -9288,19 +9285,19 @@
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="7" t="s">
+      <c r="B258" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="C258" s="8" t="s">
+      <c r="C258" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="D258" s="9" t="s">
+      <c r="D258" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="E258" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F258" s="10" t="s">
+      <c r="E258" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F258" s="9" t="s">
         <v>797</v>
       </c>
     </row>
@@ -9308,19 +9305,19 @@
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B259" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="C259" s="8" t="s">
+      <c r="C259" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="D259" s="9" t="s">
+      <c r="D259" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="E259" s="9" t="s">
+      <c r="E259" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F259" s="10" t="s">
+      <c r="F259" s="9" t="s">
         <v>800</v>
       </c>
     </row>
@@ -9328,19 +9325,19 @@
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" s="7" t="s">
+      <c r="B260" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="C260" s="8" t="s">
+      <c r="C260" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="D260" s="9" t="s">
+      <c r="D260" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="E260" s="9" t="s">
+      <c r="E260" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F260" s="10" t="s">
+      <c r="F260" s="9" t="s">
         <v>803</v>
       </c>
     </row>
@@ -9348,19 +9345,19 @@
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="7" t="s">
+      <c r="B261" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="C261" s="8" t="s">
+      <c r="C261" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="D261" s="9" t="s">
+      <c r="D261" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="E261" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F261" s="10" t="s">
+      <c r="E261" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F261" s="9" t="s">
         <v>806</v>
       </c>
     </row>
@@ -9368,19 +9365,19 @@
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B262" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="C262" s="8" t="s">
+      <c r="C262" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="D262" s="9" t="s">
+      <c r="D262" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="E262" s="9" t="s">
+      <c r="E262" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F262" s="10" t="s">
+      <c r="F262" s="9" t="s">
         <v>809</v>
       </c>
     </row>
@@ -9388,19 +9385,19 @@
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="B263" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C263" s="8" t="s">
+      <c r="C263" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="D263" s="9" t="s">
+      <c r="D263" s="8" t="s">
         <v>811</v>
       </c>
-      <c r="E263" s="9" t="s">
+      <c r="E263" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F263" s="10" t="s">
+      <c r="F263" s="9" t="s">
         <v>812</v>
       </c>
     </row>
@@ -9408,19 +9405,19 @@
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B264" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="C264" s="8" t="s">
+      <c r="C264" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="D264" s="9" t="s">
+      <c r="D264" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="E264" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F264" s="10" t="s">
+      <c r="E264" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F264" s="9" t="s">
         <v>511</v>
       </c>
     </row>
@@ -9428,19 +9425,19 @@
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="B265" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="C265" s="8" t="s">
+      <c r="C265" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="D265" s="9" t="s">
+      <c r="D265" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="E265" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F265" s="10" t="s">
+      <c r="E265" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F265" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -9448,19 +9445,19 @@
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B266" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="C266" s="8" t="s">
+      <c r="C266" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="D266" s="9" t="s">
+      <c r="D266" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="E266" s="9" t="s">
+      <c r="E266" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F266" s="10" t="s">
+      <c r="F266" s="9" t="s">
         <v>819</v>
       </c>
     </row>
@@ -9468,19 +9465,19 @@
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="B267" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C267" s="8" t="s">
+      <c r="C267" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="D267" s="9" t="s">
+      <c r="D267" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="E267" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F267" s="10" t="s">
+      <c r="E267" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F267" s="9" t="s">
         <v>822</v>
       </c>
     </row>
@@ -9488,19 +9485,19 @@
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="7" t="s">
+      <c r="B268" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="C268" s="8" t="s">
+      <c r="C268" s="7" t="s">
         <v>823</v>
       </c>
-      <c r="D268" s="9" t="s">
+      <c r="D268" s="8" t="s">
         <v>824</v>
       </c>
-      <c r="E268" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F268" s="10" t="s">
+      <c r="E268" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F268" s="9" t="s">
         <v>825</v>
       </c>
     </row>
@@ -9508,19 +9505,19 @@
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="B269" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="C269" s="8" t="s">
+      <c r="C269" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D269" s="9" t="s">
+      <c r="D269" s="8" t="s">
         <v>827</v>
       </c>
-      <c r="E269" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F269" s="10" t="s">
+      <c r="E269" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F269" s="9" t="s">
         <v>828</v>
       </c>
     </row>
@@ -9528,19 +9525,19 @@
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" s="7" t="s">
+      <c r="B270" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="C270" s="8" t="s">
+      <c r="C270" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="D270" s="9" t="s">
+      <c r="D270" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="E270" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F270" s="10" t="s">
+      <c r="E270" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F270" s="9" t="s">
         <v>831</v>
       </c>
     </row>
@@ -9548,19 +9545,19 @@
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" s="7" t="s">
+      <c r="B271" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="C271" s="8" t="s">
+      <c r="C271" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="D271" s="9" t="s">
+      <c r="D271" s="8" t="s">
         <v>833</v>
       </c>
-      <c r="E271" s="9" t="s">
+      <c r="E271" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F271" s="10" t="s">
+      <c r="F271" s="9" t="s">
         <v>834</v>
       </c>
     </row>
@@ -9568,19 +9565,19 @@
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" s="7" t="s">
+      <c r="B272" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="C272" s="8" t="s">
+      <c r="C272" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="D272" s="9" t="s">
+      <c r="D272" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="E272" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F272" s="10" t="s">
+      <c r="E272" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F272" s="9" t="s">
         <v>837</v>
       </c>
     </row>
@@ -9588,19 +9585,19 @@
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" s="7" t="s">
+      <c r="B273" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="C273" s="8" t="s">
+      <c r="C273" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="D273" s="9" t="s">
+      <c r="D273" s="8" t="s">
         <v>839</v>
       </c>
-      <c r="E273" s="9" t="s">
+      <c r="E273" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F273" s="10" t="s">
+      <c r="F273" s="9" t="s">
         <v>840</v>
       </c>
     </row>
@@ -9608,19 +9605,19 @@
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" s="7" t="s">
+      <c r="B274" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="C274" s="8" t="s">
+      <c r="C274" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="D274" s="9" t="s">
+      <c r="D274" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="E274" s="9" t="s">
+      <c r="E274" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F274" s="10" t="s">
+      <c r="F274" s="9" t="s">
         <v>843</v>
       </c>
     </row>
@@ -9628,19 +9625,19 @@
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="B275" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="C275" s="8" t="s">
+      <c r="C275" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="D275" s="9" t="s">
+      <c r="D275" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="E275" s="9" t="s">
+      <c r="E275" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F275" s="10" t="s">
+      <c r="F275" s="9" t="s">
         <v>846</v>
       </c>
     </row>
@@ -9648,19 +9645,19 @@
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" s="7" t="s">
+      <c r="B276" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="C276" s="8" t="s">
+      <c r="C276" s="7" t="s">
         <v>847</v>
       </c>
-      <c r="D276" s="9" t="s">
+      <c r="D276" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="E276" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F276" s="10" t="s">
+      <c r="E276" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F276" s="9" t="s">
         <v>849</v>
       </c>
     </row>
@@ -9668,19 +9665,19 @@
       <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B277" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="C277" s="8" t="s">
+      <c r="C277" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="D277" s="9" t="s">
+      <c r="D277" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="E277" s="9" t="s">
+      <c r="E277" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F277" s="10" t="s">
+      <c r="F277" s="9" t="s">
         <v>852</v>
       </c>
     </row>
@@ -9688,19 +9685,19 @@
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="B278" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="C278" s="8" t="s">
+      <c r="C278" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="D278" s="9" t="s">
+      <c r="D278" s="8" t="s">
         <v>854</v>
       </c>
-      <c r="E278" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F278" s="10" t="s">
+      <c r="E278" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F278" s="9" t="s">
         <v>855</v>
       </c>
     </row>
@@ -9708,19 +9705,19 @@
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B279" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="C279" s="8" t="s">
+      <c r="C279" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="D279" s="9" t="s">
+      <c r="D279" s="8" t="s">
         <v>857</v>
       </c>
-      <c r="E279" s="9" t="s">
+      <c r="E279" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F279" s="10" t="s">
+      <c r="F279" s="9" t="s">
         <v>858</v>
       </c>
     </row>
@@ -9728,19 +9725,19 @@
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" s="7" t="s">
+      <c r="B280" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="C280" s="8" t="s">
+      <c r="C280" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="D280" s="9" t="s">
+      <c r="D280" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="E280" s="9" t="s">
+      <c r="E280" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F280" s="10" t="s">
+      <c r="F280" s="9" t="s">
         <v>861</v>
       </c>
     </row>
@@ -9748,19 +9745,19 @@
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B281" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="C281" s="8" t="s">
+      <c r="C281" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="D281" s="9" t="s">
+      <c r="D281" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="E281" s="9" t="s">
+      <c r="E281" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F281" s="10" t="s">
+      <c r="F281" s="9" t="s">
         <v>864</v>
       </c>
     </row>
@@ -9768,19 +9765,19 @@
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" s="7" t="s">
+      <c r="B282" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="C282" s="8" t="s">
+      <c r="C282" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="D282" s="9" t="s">
+      <c r="D282" s="8" t="s">
         <v>866</v>
       </c>
-      <c r="E282" s="9" t="s">
+      <c r="E282" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="F282" s="10" t="s">
+      <c r="F282" s="9" t="s">
         <v>867</v>
       </c>
     </row>
@@ -9788,19 +9785,19 @@
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="B283" s="7" t="s">
+      <c r="B283" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="C283" s="8" t="s">
+      <c r="C283" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="D283" s="9" t="s">
+      <c r="D283" s="8" t="s">
         <v>869</v>
       </c>
-      <c r="E283" s="9" t="s">
+      <c r="E283" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F283" s="10" t="s">
+      <c r="F283" s="9" t="s">
         <v>870</v>
       </c>
     </row>
@@ -9808,19 +9805,19 @@
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" s="7" t="s">
+      <c r="B284" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="C284" s="8" t="s">
+      <c r="C284" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="D284" s="9" t="s">
+      <c r="D284" s="8" t="s">
         <v>872</v>
       </c>
-      <c r="E284" s="9" t="s">
+      <c r="E284" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F284" s="10" t="s">
+      <c r="F284" s="9" t="s">
         <v>873</v>
       </c>
     </row>
@@ -9828,19 +9825,19 @@
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="B285" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="C285" s="8" t="s">
+      <c r="C285" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="D285" s="9" t="s">
+      <c r="D285" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="E285" s="9" t="s">
+      <c r="E285" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F285" s="10" t="s">
+      <c r="F285" s="9" t="s">
         <v>876</v>
       </c>
     </row>
@@ -9848,19 +9845,19 @@
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" s="7" t="s">
+      <c r="B286" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="C286" s="8" t="s">
+      <c r="C286" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="D286" s="9" t="s">
+      <c r="D286" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="E286" s="9" t="s">
+      <c r="E286" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F286" s="10" t="s">
+      <c r="F286" s="9" t="s">
         <v>879</v>
       </c>
     </row>
@@ -9868,19 +9865,19 @@
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B287" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="C287" s="8" t="s">
+      <c r="C287" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="D287" s="9" t="s">
+      <c r="D287" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="E287" s="9" t="s">
+      <c r="E287" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="F287" s="10" t="s">
+      <c r="F287" s="9" t="s">
         <v>883</v>
       </c>
     </row>
@@ -9888,19 +9885,19 @@
       <c r="A288">
         <v>287</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B288" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="C288" s="8" t="s">
+      <c r="C288" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="D288" s="9" t="s">
+      <c r="D288" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="E288" s="9" t="s">
+      <c r="E288" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F288" s="10" t="s">
+      <c r="F288" s="9" t="s">
         <v>886</v>
       </c>
     </row>
@@ -9908,19 +9905,19 @@
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" s="7" t="s">
+      <c r="B289" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="C289" s="8" t="s">
+      <c r="C289" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="D289" s="9" t="s">
+      <c r="D289" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="E289" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F289" s="10" t="s">
+      <c r="E289" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F289" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9928,19 +9925,19 @@
       <c r="A290">
         <v>289</v>
       </c>
-      <c r="B290" s="7" t="s">
+      <c r="B290" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="C290" s="8" t="s">
+      <c r="C290" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="D290" s="9" t="s">
+      <c r="D290" s="8" t="s">
         <v>890</v>
       </c>
-      <c r="E290" s="9" t="s">
+      <c r="E290" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F290" s="10" t="s">
+      <c r="F290" s="9" t="s">
         <v>891</v>
       </c>
     </row>
@@ -9948,19 +9945,19 @@
       <c r="A291">
         <v>290</v>
       </c>
-      <c r="B291" s="7" t="s">
+      <c r="B291" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="C291" s="8" t="s">
+      <c r="C291" s="7" t="s">
         <v>892</v>
       </c>
-      <c r="D291" s="9" t="s">
+      <c r="D291" s="8" t="s">
         <v>893</v>
       </c>
-      <c r="E291" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F291" s="10" t="s">
+      <c r="E291" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F291" s="9" t="s">
         <v>894</v>
       </c>
     </row>
@@ -9968,19 +9965,19 @@
       <c r="A292">
         <v>291</v>
       </c>
-      <c r="B292" s="7" t="s">
+      <c r="B292" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="C292" s="8" t="s">
+      <c r="C292" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="D292" s="9" t="s">
+      <c r="D292" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="E292" s="9" t="s">
+      <c r="E292" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F292" s="10" t="s">
+      <c r="F292" s="9" t="s">
         <v>897</v>
       </c>
     </row>
@@ -9988,19 +9985,19 @@
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="B293" s="7" t="s">
+      <c r="B293" s="6" t="s">
         <v>898</v>
       </c>
-      <c r="C293" s="8" t="s">
+      <c r="C293" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="D293" s="9" t="s">
+      <c r="D293" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="E293" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F293" s="10" t="s">
+      <c r="E293" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F293" s="9" t="s">
         <v>900</v>
       </c>
     </row>
@@ -10008,19 +10005,19 @@
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" s="7" t="s">
+      <c r="B294" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="C294" s="8" t="s">
+      <c r="C294" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="D294" s="9" t="s">
+      <c r="D294" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="E294" s="9" t="s">
+      <c r="E294" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F294" s="10" t="s">
+      <c r="F294" s="9" t="s">
         <v>903</v>
       </c>
     </row>
@@ -10028,19 +10025,19 @@
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="B295" s="7" t="s">
+      <c r="B295" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="C295" s="8" t="s">
+      <c r="C295" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="D295" s="9" t="s">
+      <c r="D295" s="8" t="s">
         <v>905</v>
       </c>
-      <c r="E295" s="9" t="s">
+      <c r="E295" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F295" s="10" t="s">
+      <c r="F295" s="9" t="s">
         <v>906</v>
       </c>
     </row>
@@ -10048,19 +10045,19 @@
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B296" s="6" t="s">
         <v>907</v>
       </c>
-      <c r="C296" s="8" t="s">
+      <c r="C296" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="D296" s="9" t="s">
+      <c r="D296" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="E296" s="9" t="s">
+      <c r="E296" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F296" s="10" t="s">
+      <c r="F296" s="9" t="s">
         <v>909</v>
       </c>
     </row>
@@ -10068,19 +10065,19 @@
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="B297" s="7" t="s">
+      <c r="B297" s="6" t="s">
         <v>910</v>
       </c>
-      <c r="C297" s="8" t="s">
+      <c r="C297" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="D297" s="9" t="s">
+      <c r="D297" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="E297" s="9" t="s">
+      <c r="E297" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F297" s="10" t="s">
+      <c r="F297" s="9" t="s">
         <v>912</v>
       </c>
     </row>
@@ -10088,19 +10085,19 @@
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" s="7" t="s">
+      <c r="B298" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="C298" s="8" t="s">
+      <c r="C298" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="D298" s="9" t="s">
+      <c r="D298" s="8" t="s">
         <v>914</v>
       </c>
-      <c r="E298" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F298" s="10" t="s">
+      <c r="E298" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F298" s="9" t="s">
         <v>915</v>
       </c>
     </row>
@@ -10108,19 +10105,19 @@
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="B299" s="7" t="s">
+      <c r="B299" s="6" t="s">
         <v>916</v>
       </c>
-      <c r="C299" s="8" t="s">
+      <c r="C299" s="7" t="s">
         <v>916</v>
       </c>
-      <c r="D299" s="9" t="s">
+      <c r="D299" s="8" t="s">
         <v>917</v>
       </c>
-      <c r="E299" s="9" t="s">
+      <c r="E299" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F299" s="10" t="s">
+      <c r="F299" s="9" t="s">
         <v>918</v>
       </c>
     </row>
@@ -10128,19 +10125,19 @@
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" s="7" t="s">
+      <c r="B300" s="6" t="s">
         <v>919</v>
       </c>
-      <c r="C300" s="8" t="s">
+      <c r="C300" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="D300" s="9" t="s">
+      <c r="D300" s="8" t="s">
         <v>920</v>
       </c>
-      <c r="E300" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F300" s="10" t="s">
+      <c r="E300" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F300" s="9" t="s">
         <v>921</v>
       </c>
     </row>
@@ -10148,19 +10145,19 @@
       <c r="A301">
         <v>300</v>
       </c>
-      <c r="B301" s="7" t="s">
+      <c r="B301" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="C301" s="8" t="s">
+      <c r="C301" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="D301" s="9" t="s">
+      <c r="D301" s="8" t="s">
         <v>923</v>
       </c>
-      <c r="E301" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F301" s="10" t="s">
+      <c r="E301" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F301" s="9" t="s">
         <v>924</v>
       </c>
     </row>
@@ -10168,19 +10165,19 @@
       <c r="A302">
         <v>301</v>
       </c>
-      <c r="B302" s="7" t="s">
+      <c r="B302" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="C302" s="8" t="s">
+      <c r="C302" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="D302" s="9" t="s">
+      <c r="D302" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="E302" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F302" s="10" t="s">
+      <c r="E302" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F302" s="9" t="s">
         <v>927</v>
       </c>
     </row>
@@ -10188,19 +10185,19 @@
       <c r="A303">
         <v>302</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B303" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="C303" s="8" t="s">
+      <c r="C303" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="D303" s="9" t="s">
+      <c r="D303" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="E303" s="9" t="s">
+      <c r="E303" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F303" s="10" t="s">
+      <c r="F303" s="9" t="s">
         <v>930</v>
       </c>
     </row>
@@ -10208,19 +10205,19 @@
       <c r="A304">
         <v>303</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="B304" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="C304" s="8" t="s">
+      <c r="C304" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="D304" s="9" t="s">
+      <c r="D304" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="E304" s="9" t="s">
+      <c r="E304" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F304" s="10" t="s">
+      <c r="F304" s="9" t="s">
         <v>933</v>
       </c>
     </row>
@@ -10228,19 +10225,19 @@
       <c r="A305">
         <v>304</v>
       </c>
-      <c r="B305" s="7" t="s">
+      <c r="B305" s="6" t="s">
         <v>934</v>
       </c>
-      <c r="C305" s="8" t="s">
+      <c r="C305" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="D305" s="9" t="s">
+      <c r="D305" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="E305" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F305" s="10" t="s">
+      <c r="E305" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F305" s="9" t="s">
         <v>936</v>
       </c>
     </row>
@@ -10248,19 +10245,19 @@
       <c r="A306">
         <v>305</v>
       </c>
-      <c r="B306" s="7" t="s">
+      <c r="B306" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="C306" s="8" t="s">
+      <c r="C306" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="D306" s="9" t="s">
+      <c r="D306" s="8" t="s">
         <v>938</v>
       </c>
-      <c r="E306" s="9" t="s">
+      <c r="E306" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="F306" s="10" t="s">
+      <c r="F306" s="9" t="s">
         <v>939</v>
       </c>
     </row>
@@ -10268,19 +10265,19 @@
       <c r="A307">
         <v>306</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="B307" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="C307" s="8" t="s">
+      <c r="C307" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="D307" s="9" t="s">
+      <c r="D307" s="8" t="s">
         <v>941</v>
       </c>
-      <c r="E307" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F307" s="10" t="s">
+      <c r="E307" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F307" s="9" t="s">
         <v>942</v>
       </c>
     </row>
@@ -10288,19 +10285,19 @@
       <c r="A308">
         <v>307</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="B308" s="6" t="s">
         <v>943</v>
       </c>
-      <c r="C308" s="8" t="s">
+      <c r="C308" s="7" t="s">
         <v>943</v>
       </c>
-      <c r="D308" s="9" t="s">
+      <c r="D308" s="8" t="s">
         <v>944</v>
       </c>
-      <c r="E308" s="9" t="s">
+      <c r="E308" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F308" s="10" t="s">
+      <c r="F308" s="9" t="s">
         <v>945</v>
       </c>
     </row>
@@ -10308,19 +10305,19 @@
       <c r="A309">
         <v>308</v>
       </c>
-      <c r="B309" s="7" t="s">
+      <c r="B309" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="C309" s="8" t="s">
+      <c r="C309" s="7" t="s">
         <v>946</v>
       </c>
-      <c r="D309" s="9" t="s">
+      <c r="D309" s="8" t="s">
         <v>947</v>
       </c>
-      <c r="E309" s="9" t="s">
+      <c r="E309" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F309" s="10" t="s">
+      <c r="F309" s="9" t="s">
         <v>948</v>
       </c>
     </row>
@@ -10328,19 +10325,19 @@
       <c r="A310">
         <v>309</v>
       </c>
-      <c r="B310" s="7" t="s">
+      <c r="B310" s="6" t="s">
         <v>949</v>
       </c>
-      <c r="C310" s="8" t="s">
+      <c r="C310" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="D310" s="9" t="s">
+      <c r="D310" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="E310" s="9" t="s">
+      <c r="E310" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="F310" s="10" t="s">
+      <c r="F310" s="9" t="s">
         <v>951</v>
       </c>
     </row>
@@ -10348,19 +10345,19 @@
       <c r="A311">
         <v>310</v>
       </c>
-      <c r="B311" s="7" t="s">
+      <c r="B311" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="C311" s="8" t="s">
+      <c r="C311" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="D311" s="9" t="s">
+      <c r="D311" s="8" t="s">
         <v>953</v>
       </c>
-      <c r="E311" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F311" s="10" t="s">
+      <c r="E311" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F311" s="9" t="s">
         <v>954</v>
       </c>
     </row>
@@ -10368,19 +10365,19 @@
       <c r="A312">
         <v>311</v>
       </c>
-      <c r="B312" s="7" t="s">
+      <c r="B312" s="6" t="s">
         <v>955</v>
       </c>
-      <c r="C312" s="8" t="s">
+      <c r="C312" s="7" t="s">
         <v>955</v>
       </c>
-      <c r="D312" s="9" t="s">
+      <c r="D312" s="8" t="s">
         <v>956</v>
       </c>
-      <c r="E312" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F312" s="10" t="s">
+      <c r="E312" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F312" s="9" t="s">
         <v>957</v>
       </c>
     </row>
@@ -10388,19 +10385,19 @@
       <c r="A313">
         <v>312</v>
       </c>
-      <c r="B313" s="7" t="s">
+      <c r="B313" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="C313" s="8" t="s">
+      <c r="C313" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="D313" s="9" t="s">
+      <c r="D313" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="E313" s="9" t="s">
+      <c r="E313" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="F313" s="10" t="s">
+      <c r="F313" s="9" t="s">
         <v>960</v>
       </c>
     </row>
@@ -10408,19 +10405,19 @@
       <c r="A314">
         <v>313</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B314" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="C314" s="8" t="s">
+      <c r="C314" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="D314" s="9" t="s">
+      <c r="D314" s="8" t="s">
         <v>962</v>
       </c>
-      <c r="E314" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F314" s="10" t="s">
+      <c r="E314" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F314" s="9" t="s">
         <v>963</v>
       </c>
     </row>
@@ -10428,19 +10425,19 @@
       <c r="A315">
         <v>314</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="B315" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="C315" s="8" t="s">
+      <c r="C315" s="7" t="s">
         <v>964</v>
       </c>
-      <c r="D315" s="9" t="s">
+      <c r="D315" s="8" t="s">
         <v>965</v>
       </c>
-      <c r="E315" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F315" s="10" t="s">
+      <c r="E315" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F315" s="9" t="s">
         <v>966</v>
       </c>
     </row>
@@ -10448,19 +10445,19 @@
       <c r="A316">
         <v>315</v>
       </c>
-      <c r="B316" s="7" t="s">
+      <c r="B316" s="6" t="s">
         <v>967</v>
       </c>
-      <c r="C316" s="8" t="s">
+      <c r="C316" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="D316" s="9" t="s">
+      <c r="D316" s="8" t="s">
         <v>968</v>
       </c>
-      <c r="E316" s="9" t="s">
+      <c r="E316" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F316" s="10" t="s">
+      <c r="F316" s="9" t="s">
         <v>969</v>
       </c>
     </row>
@@ -10468,19 +10465,19 @@
       <c r="A317">
         <v>316</v>
       </c>
-      <c r="B317" s="7" t="s">
+      <c r="B317" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="C317" s="8" t="s">
+      <c r="C317" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="D317" s="9" t="s">
+      <c r="D317" s="8" t="s">
         <v>971</v>
       </c>
-      <c r="E317" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F317" s="10" t="s">
+      <c r="E317" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F317" s="9" t="s">
         <v>972</v>
       </c>
     </row>
@@ -10488,19 +10485,19 @@
       <c r="A318">
         <v>317</v>
       </c>
-      <c r="B318" s="7" t="s">
+      <c r="B318" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="C318" s="8" t="s">
+      <c r="C318" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="D318" s="9" t="s">
+      <c r="D318" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="E318" s="9" t="s">
+      <c r="E318" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F318" s="10" t="s">
+      <c r="F318" s="9" t="s">
         <v>975</v>
       </c>
     </row>
@@ -10508,19 +10505,19 @@
       <c r="A319">
         <v>318</v>
       </c>
-      <c r="B319" s="7" t="s">
+      <c r="B319" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="C319" s="8" t="s">
+      <c r="C319" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="D319" s="9" t="s">
+      <c r="D319" s="8" t="s">
         <v>977</v>
       </c>
-      <c r="E319" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F319" s="10" t="s">
+      <c r="E319" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F319" s="9" t="s">
         <v>978</v>
       </c>
     </row>
@@ -10528,19 +10525,19 @@
       <c r="A320">
         <v>319</v>
       </c>
-      <c r="B320" s="7" t="s">
+      <c r="B320" s="6" t="s">
         <v>979</v>
       </c>
-      <c r="C320" s="8" t="s">
+      <c r="C320" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="D320" s="9" t="s">
+      <c r="D320" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="E320" s="9" t="s">
+      <c r="E320" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F320" s="10" t="s">
+      <c r="F320" s="9" t="s">
         <v>981</v>
       </c>
     </row>
@@ -10548,19 +10545,19 @@
       <c r="A321">
         <v>320</v>
       </c>
-      <c r="B321" s="7" t="s">
+      <c r="B321" s="6" t="s">
         <v>982</v>
       </c>
-      <c r="C321" s="8" t="s">
+      <c r="C321" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="D321" s="9" t="s">
+      <c r="D321" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="E321" s="9" t="s">
+      <c r="E321" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F321" s="10" t="s">
+      <c r="F321" s="9" t="s">
         <v>984</v>
       </c>
     </row>
@@ -10568,19 +10565,19 @@
       <c r="A322">
         <v>321</v>
       </c>
-      <c r="B322" s="7" t="s">
+      <c r="B322" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="C322" s="8" t="s">
+      <c r="C322" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="D322" s="9" t="s">
+      <c r="D322" s="8" t="s">
         <v>986</v>
       </c>
-      <c r="E322" s="9" t="s">
+      <c r="E322" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F322" s="10" t="s">
+      <c r="F322" s="9" t="s">
         <v>987</v>
       </c>
     </row>
@@ -10588,19 +10585,19 @@
       <c r="A323">
         <v>322</v>
       </c>
-      <c r="B323" s="7" t="s">
+      <c r="B323" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="C323" s="8" t="s">
+      <c r="C323" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="D323" s="9" t="s">
+      <c r="D323" s="8" t="s">
         <v>989</v>
       </c>
-      <c r="E323" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F323" s="10" t="s">
+      <c r="E323" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F323" s="9" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10608,19 +10605,19 @@
       <c r="A324">
         <v>323</v>
       </c>
-      <c r="B324" s="7" t="s">
+      <c r="B324" s="6" t="s">
         <v>991</v>
       </c>
-      <c r="C324" s="8" t="s">
+      <c r="C324" s="7" t="s">
         <v>991</v>
       </c>
-      <c r="D324" s="9" t="s">
+      <c r="D324" s="8" t="s">
         <v>992</v>
       </c>
-      <c r="E324" s="9" t="s">
+      <c r="E324" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="F324" s="10" t="s">
+      <c r="F324" s="9" t="s">
         <v>993</v>
       </c>
     </row>
@@ -10628,19 +10625,19 @@
       <c r="A325">
         <v>324</v>
       </c>
-      <c r="B325" s="7" t="s">
+      <c r="B325" s="6" t="s">
         <v>994</v>
       </c>
-      <c r="C325" s="8" t="s">
+      <c r="C325" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="D325" s="9" t="s">
+      <c r="D325" s="8" t="s">
         <v>995</v>
       </c>
-      <c r="E325" s="9" t="s">
+      <c r="E325" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F325" s="10" t="s">
+      <c r="F325" s="9" t="s">
         <v>996</v>
       </c>
     </row>
@@ -10648,19 +10645,19 @@
       <c r="A326">
         <v>325</v>
       </c>
-      <c r="B326" s="7" t="s">
+      <c r="B326" s="6" t="s">
         <v>997</v>
       </c>
-      <c r="C326" s="8" t="s">
+      <c r="C326" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="D326" s="9" t="s">
+      <c r="D326" s="8" t="s">
         <v>998</v>
       </c>
-      <c r="E326" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F326" s="10" t="s">
+      <c r="E326" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F326" s="9" t="s">
         <v>999</v>
       </c>
     </row>
@@ -10668,19 +10665,19 @@
       <c r="A327">
         <v>326</v>
       </c>
-      <c r="B327" s="7" t="s">
+      <c r="B327" s="6" t="s">
         <v>1000</v>
       </c>
-      <c r="C327" s="8" t="s">
+      <c r="C327" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="D327" s="9" t="s">
+      <c r="D327" s="8" t="s">
         <v>1001</v>
       </c>
-      <c r="E327" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F327" s="10" t="s">
+      <c r="E327" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F327" s="9" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -10688,19 +10685,19 @@
       <c r="A328">
         <v>327</v>
       </c>
-      <c r="B328" s="7" t="s">
+      <c r="B328" s="6" t="s">
         <v>1003</v>
       </c>
-      <c r="C328" s="8" t="s">
+      <c r="C328" s="7" t="s">
         <v>1003</v>
       </c>
-      <c r="D328" s="9" t="s">
+      <c r="D328" s="8" t="s">
         <v>1004</v>
       </c>
-      <c r="E328" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F328" s="10" t="s">
+      <c r="E328" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F328" s="9" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -10708,19 +10705,19 @@
       <c r="A329">
         <v>328</v>
       </c>
-      <c r="B329" s="7" t="s">
+      <c r="B329" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="C329" s="8" t="s">
+      <c r="C329" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="D329" s="9" t="s">
+      <c r="D329" s="8" t="s">
         <v>1007</v>
       </c>
-      <c r="E329" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F329" s="10" t="s">
+      <c r="E329" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F329" s="9" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -10728,19 +10725,19 @@
       <c r="A330">
         <v>329</v>
       </c>
-      <c r="B330" s="7" t="s">
+      <c r="B330" s="6" t="s">
         <v>1009</v>
       </c>
-      <c r="C330" s="8" t="s">
+      <c r="C330" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="D330" s="9" t="s">
+      <c r="D330" s="8" t="s">
         <v>1010</v>
       </c>
-      <c r="E330" s="9" t="s">
+      <c r="E330" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F330" s="10" t="s">
+      <c r="F330" s="9" t="s">
         <v>1011</v>
       </c>
     </row>
@@ -10748,19 +10745,19 @@
       <c r="A331">
         <v>330</v>
       </c>
-      <c r="B331" s="7" t="s">
+      <c r="B331" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="C331" s="8" t="s">
+      <c r="C331" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="D331" s="9" t="s">
+      <c r="D331" s="8" t="s">
         <v>1013</v>
       </c>
-      <c r="E331" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F331" s="10" t="s">
+      <c r="E331" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F331" s="9" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -10768,19 +10765,19 @@
       <c r="A332">
         <v>331</v>
       </c>
-      <c r="B332" s="7" t="s">
+      <c r="B332" s="6" t="s">
         <v>1015</v>
       </c>
-      <c r="C332" s="8" t="s">
+      <c r="C332" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="D332" s="9" t="s">
+      <c r="D332" s="8" t="s">
         <v>1016</v>
       </c>
-      <c r="E332" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F332" s="10" t="s">
+      <c r="E332" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F332" s="9" t="s">
         <v>1017</v>
       </c>
     </row>
@@ -10788,19 +10785,19 @@
       <c r="A333">
         <v>332</v>
       </c>
-      <c r="B333" s="7" t="s">
+      <c r="B333" s="6" t="s">
         <v>1018</v>
       </c>
-      <c r="C333" s="8" t="s">
+      <c r="C333" s="7" t="s">
         <v>1018</v>
       </c>
-      <c r="D333" s="9" t="s">
+      <c r="D333" s="8" t="s">
         <v>1019</v>
       </c>
-      <c r="E333" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F333" s="10" t="s">
+      <c r="E333" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F333" s="9" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -10808,19 +10805,19 @@
       <c r="A334">
         <v>333</v>
       </c>
-      <c r="B334" s="7" t="s">
+      <c r="B334" s="6" t="s">
         <v>1021</v>
       </c>
-      <c r="C334" s="8" t="s">
+      <c r="C334" s="7" t="s">
         <v>1021</v>
       </c>
-      <c r="D334" s="9" t="s">
+      <c r="D334" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="E334" s="9" t="s">
+      <c r="E334" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F334" s="10" t="s">
+      <c r="F334" s="9" t="s">
         <v>1023</v>
       </c>
     </row>
@@ -10828,19 +10825,19 @@
       <c r="A335">
         <v>334</v>
       </c>
-      <c r="B335" s="7" t="s">
+      <c r="B335" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="C335" s="8" t="s">
+      <c r="C335" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="D335" s="9" t="s">
+      <c r="D335" s="8" t="s">
         <v>1025</v>
       </c>
-      <c r="E335" s="9" t="s">
+      <c r="E335" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F335" s="10" t="s">
+      <c r="F335" s="9" t="s">
         <v>1026</v>
       </c>
     </row>
@@ -10848,19 +10845,19 @@
       <c r="A336">
         <v>335</v>
       </c>
-      <c r="B336" s="7" t="s">
+      <c r="B336" s="6" t="s">
         <v>1027</v>
       </c>
-      <c r="C336" s="8" t="s">
+      <c r="C336" s="7" t="s">
         <v>1027</v>
       </c>
-      <c r="D336" s="9" t="s">
+      <c r="D336" s="8" t="s">
         <v>1028</v>
       </c>
-      <c r="E336" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F336" s="10" t="s">
+      <c r="E336" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F336" s="9" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -10868,19 +10865,19 @@
       <c r="A337">
         <v>336</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="B337" s="6" t="s">
         <v>1030</v>
       </c>
-      <c r="C337" s="8" t="s">
+      <c r="C337" s="7" t="s">
         <v>1030</v>
       </c>
-      <c r="D337" s="9" t="s">
+      <c r="D337" s="8" t="s">
         <v>1031</v>
       </c>
-      <c r="E337" s="9" t="s">
+      <c r="E337" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="F337" s="10" t="s">
+      <c r="F337" s="9" t="s">
         <v>1033</v>
       </c>
     </row>
@@ -10888,19 +10885,19 @@
       <c r="A338">
         <v>337</v>
       </c>
-      <c r="B338" s="7" t="s">
+      <c r="B338" s="6" t="s">
         <v>1034</v>
       </c>
-      <c r="C338" s="8" t="s">
+      <c r="C338" s="7" t="s">
         <v>1034</v>
       </c>
-      <c r="D338" s="9" t="s">
+      <c r="D338" s="8" t="s">
         <v>1035</v>
       </c>
-      <c r="E338" s="9" t="s">
+      <c r="E338" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F338" s="10" t="s">
+      <c r="F338" s="9" t="s">
         <v>1036</v>
       </c>
     </row>
